--- a/Matthew Data/Data.xlsx
+++ b/Matthew Data/Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Dropbox/Matthew/Documents/RBE 2002/RBE_2002-Team_10/Matthew Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC65085-2208-B746-A124-B0EA634502D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4903A9-A6BE-554B-85E0-046B677B83D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{33445F39-0564-DD43-A5BA-E2820B270D67}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{33445F39-0564-DD43-A5BA-E2820B270D67}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ultrasonic" sheetId="1" r:id="rId1"/>
+    <sheet name="IR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>10 cm</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>Standard Dev</t>
+  </si>
+  <si>
+    <t>Voltage</t>
   </si>
 </sst>
 </file>
@@ -96,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6286D92-3237-AA46-91E0-694698445CC9}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,4 +912,500 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FA1115-8D26-4D43-97D4-9C6B9DBBD880}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C2">
+        <v>1.19</v>
+      </c>
+      <c r="D2">
+        <v>0.84</v>
+      </c>
+      <c r="E2">
+        <v>0.64</v>
+      </c>
+      <c r="F2">
+        <v>0.62</v>
+      </c>
+      <c r="G2">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>2.23</v>
+      </c>
+      <c r="C3">
+        <v>1.19</v>
+      </c>
+      <c r="D3">
+        <v>0.82</v>
+      </c>
+      <c r="E3">
+        <v>0.65</v>
+      </c>
+      <c r="F3">
+        <v>0.62</v>
+      </c>
+      <c r="G3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C4">
+        <v>1.21</v>
+      </c>
+      <c r="D4">
+        <v>0.82</v>
+      </c>
+      <c r="E4">
+        <v>0.65</v>
+      </c>
+      <c r="F4">
+        <v>0.62</v>
+      </c>
+      <c r="G4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1.21</v>
+      </c>
+      <c r="D5">
+        <v>0.82</v>
+      </c>
+      <c r="E5">
+        <v>0.65</v>
+      </c>
+      <c r="F5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C6">
+        <v>1.21</v>
+      </c>
+      <c r="D6">
+        <v>0.82</v>
+      </c>
+      <c r="E6">
+        <v>0.65</v>
+      </c>
+      <c r="F6">
+        <v>0.62</v>
+      </c>
+      <c r="G6">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2.23</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
+      </c>
+      <c r="D7">
+        <v>0.82</v>
+      </c>
+      <c r="E7">
+        <v>0.65</v>
+      </c>
+      <c r="F7">
+        <v>0.65</v>
+      </c>
+      <c r="G7">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C8">
+        <v>1.21</v>
+      </c>
+      <c r="D8">
+        <v>0.82</v>
+      </c>
+      <c r="E8">
+        <v>0.65</v>
+      </c>
+      <c r="F8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C9">
+        <v>1.21</v>
+      </c>
+      <c r="D9">
+        <v>0.82</v>
+      </c>
+      <c r="E9">
+        <v>0.65</v>
+      </c>
+      <c r="F9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C10">
+        <v>1.21</v>
+      </c>
+      <c r="D10">
+        <v>0.82</v>
+      </c>
+      <c r="E10">
+        <v>0.66</v>
+      </c>
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+      <c r="G10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2.23</v>
+      </c>
+      <c r="C11">
+        <v>1.21</v>
+      </c>
+      <c r="D11">
+        <v>0.82</v>
+      </c>
+      <c r="E11">
+        <v>0.65</v>
+      </c>
+      <c r="F11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G11">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2.23</v>
+      </c>
+      <c r="C12">
+        <v>1.21</v>
+      </c>
+      <c r="D12">
+        <v>0.82</v>
+      </c>
+      <c r="E12">
+        <v>0.65</v>
+      </c>
+      <c r="F12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C13">
+        <v>1.21</v>
+      </c>
+      <c r="D13">
+        <v>0.82</v>
+      </c>
+      <c r="E13">
+        <v>0.63</v>
+      </c>
+      <c r="F13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2.23</v>
+      </c>
+      <c r="C14">
+        <v>1.21</v>
+      </c>
+      <c r="D14">
+        <v>0.82</v>
+      </c>
+      <c r="E14">
+        <v>0.65</v>
+      </c>
+      <c r="F14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2.23</v>
+      </c>
+      <c r="C15">
+        <v>1.21</v>
+      </c>
+      <c r="D15">
+        <v>0.82</v>
+      </c>
+      <c r="E15">
+        <v>0.65</v>
+      </c>
+      <c r="F15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2.23</v>
+      </c>
+      <c r="C16">
+        <v>1.21</v>
+      </c>
+      <c r="D16">
+        <v>0.82</v>
+      </c>
+      <c r="E16">
+        <v>0.65</v>
+      </c>
+      <c r="F16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G16">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>2.23</v>
+      </c>
+      <c r="C17">
+        <v>1.21</v>
+      </c>
+      <c r="D17">
+        <v>0.82</v>
+      </c>
+      <c r="E17">
+        <v>0.65</v>
+      </c>
+      <c r="F17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2.23</v>
+      </c>
+      <c r="C18">
+        <v>1.21</v>
+      </c>
+      <c r="D18">
+        <v>0.82</v>
+      </c>
+      <c r="E18">
+        <v>0.66</v>
+      </c>
+      <c r="F18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>2.23</v>
+      </c>
+      <c r="C19">
+        <v>1.21</v>
+      </c>
+      <c r="D19">
+        <v>0.82</v>
+      </c>
+      <c r="E19">
+        <v>0.66</v>
+      </c>
+      <c r="F19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G19">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>2.23</v>
+      </c>
+      <c r="C20">
+        <v>1.21</v>
+      </c>
+      <c r="D20">
+        <v>0.83</v>
+      </c>
+      <c r="E20">
+        <v>0.65</v>
+      </c>
+      <c r="F20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G20">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>2.23</v>
+      </c>
+      <c r="C21">
+        <v>1.21</v>
+      </c>
+      <c r="D21">
+        <v>0.82</v>
+      </c>
+      <c r="E21">
+        <v>0.65</v>
+      </c>
+      <c r="F21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE(B2:B21)</f>
+        <v>2.2259999999999991</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:G23" si="0">AVERAGE(C2:C21)</f>
+        <v>1.2075000000000005</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.82150000000000012</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F2:F21)</f>
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0.6034999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <f>STDEV(B2:B21)</f>
+        <v>5.0262468995002372E-3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:G24" si="1">STDEV(C2:C21)</f>
+        <v>6.3866637365850541E-3</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>4.8936048492959341E-3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>6.4888568452305074E-3</v>
+      </c>
+      <c r="F24">
+        <f>STDEV(F2:F21)</f>
+        <v>2.2070461326349652E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1.8994459025837265E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Matthew Data/Data.xlsx
+++ b/Matthew Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Dropbox/Matthew/Documents/RBE 2002/RBE_2002-Team_10/Matthew Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4903A9-A6BE-554B-85E0-046B677B83D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBADE28-8B03-AB46-B539-3C9EF033A339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{33445F39-0564-DD43-A5BA-E2820B270D67}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ultrasonic" sheetId="1" r:id="rId1"/>
     <sheet name="IR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,22 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>10 cm</t>
-  </si>
-  <si>
-    <t>20 cm</t>
-  </si>
-  <si>
-    <t>30 cm</t>
-  </si>
-  <si>
-    <t>40 cm</t>
-  </si>
-  <si>
-    <t>50 cm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Averages</t>
   </si>
@@ -58,13 +43,19 @@
     <t>Pulse Time (µm)</t>
   </si>
   <si>
-    <t>60 cm</t>
-  </si>
-  <si>
     <t>Standard Dev</t>
   </si>
   <si>
-    <t>Voltage</t>
+    <t>Best Fit</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Voltage (V)</t>
+  </si>
+  <si>
+    <t>Inverse Distance</t>
   </si>
 </sst>
 </file>
@@ -118,6 +109,2109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ultrasonic Distance Sensor Pulse Length over Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.2087525049086086E-3"/>
+                  <c:y val="-5.2185215129358829E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ultrasonic!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ultrasonic!$B$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>521.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1647.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2202.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2779.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3347.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3212-E745-A26D-2433053F2AC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1276333840"/>
+        <c:axId val="1276310288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1276333840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Distance (cm)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4804961911894689"/>
+              <c:y val="0.92765624999999985"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276310288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1276310288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Pulse Time (µm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0282776349614395E-2"/>
+              <c:y val="0.40030880905511812"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276333840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IR Distance Sensor Voltage over Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.1336153674878042E-2"/>
+                  <c:y val="-0.4021124507874016"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IR!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IR!$B$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2259999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2075000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82150000000000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6034999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-6F6F-4040-BE4A-5866271BAA6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1276333840"/>
+        <c:axId val="1276310288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1276333840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Distance (cm)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4804961911894689"/>
+              <c:y val="0.92765624999999985"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276310288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1276310288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0282776349614395E-2"/>
+              <c:y val="0.40030880905511812"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276333840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IR Distance Sensor Voltage over Inverse Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10957971513200952"/>
+                  <c:y val="0.10723003374578177"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IR!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IR!$B$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2259999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2075000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82150000000000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6034999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-28FD-D14F-8BE8-C0AA1AB34C5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1276333840"/>
+        <c:axId val="1276310288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1276333840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Inverse Distance (1/cm)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4804961911894689"/>
+              <c:y val="0.92765624999999985"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276310288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1276310288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0282776349614395E-2"/>
+              <c:y val="0.40030880905511812"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276333840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39620DB1-B266-5345-B4F5-39F1071B0B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53534831-5610-374E-B657-4CCA876716E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27352527-1473-8247-A320-B8B9D3A1C023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,38 +2511,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6286D92-3237-AA46-91E0-694698445CC9}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>40</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -853,7 +2948,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <f>AVERAGE(B2:B21)</f>
@@ -882,7 +2977,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <f>STDEV(B2:B21)</f>
@@ -909,42 +3004,105 @@
         <v>7.2576638259515933</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f>B1*56.274-34.88</f>
+        <v>527.86</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:G25" si="2">C1*56.274-34.88</f>
+        <v>1090.5999999999999</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>1653.34</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>2216.08</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>2778.8199999999997</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>3341.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <f>B23-B25</f>
+        <v>-6.6599999999999682</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:G26" si="3">C23-C25</f>
+        <v>19.400000000000091</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>-6.1399999999998727</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>-13.480000000000018</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.98000000000047294</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>5.8400000000001455</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FA1115-8D26-4D43-97D4-9C6B9DBBD880}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>40</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -968,6 +3126,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
       <c r="B3">
         <v>2.23</v>
       </c>
@@ -988,6 +3149,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>1/B1</f>
+        <v>0.1</v>
+      </c>
       <c r="B4">
         <v>2.2200000000000002</v>
       </c>
@@ -1008,6 +3173,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>1/C1</f>
+        <v>0.05</v>
+      </c>
       <c r="B5">
         <v>2.2200000000000002</v>
       </c>
@@ -1028,6 +3197,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>1/D1</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
       <c r="B6">
         <v>2.2200000000000002</v>
       </c>
@@ -1048,6 +3221,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>1/E1</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="B7">
         <v>2.23</v>
       </c>
@@ -1068,6 +3245,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>1/F1</f>
+        <v>0.02</v>
+      </c>
       <c r="B8">
         <v>2.2200000000000002</v>
       </c>
@@ -1088,6 +3269,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>1/G1</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
       <c r="B9">
         <v>2.2200000000000002</v>
       </c>
@@ -1349,7 +3534,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <f>AVERAGE(B2:B21)</f>
@@ -1378,7 +3563,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <f>STDEV(B2:B21)</f>
@@ -1405,7 +3590,66 @@
         <v>1.8994459025837265E-2</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f>A4* 20.248 + 0.1899</f>
+        <v>2.2147000000000006</v>
+      </c>
+      <c r="C25">
+        <f>A5* 20.248 + 0.1899</f>
+        <v>1.2023000000000001</v>
+      </c>
+      <c r="D25">
+        <f>A6* 20.248 + 0.1899</f>
+        <v>0.86483333333333334</v>
+      </c>
+      <c r="E25">
+        <f>A7* 20.248 + 0.1899</f>
+        <v>0.69610000000000016</v>
+      </c>
+      <c r="F25">
+        <f>A8* 20.248 + 0.1899</f>
+        <v>0.59486000000000006</v>
+      </c>
+      <c r="G25">
+        <f>A9* 20.248 + 0.1899</f>
+        <v>0.52736666666666676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <f>B23-B25</f>
+        <v>1.1299999999998533E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:G26" si="2">C23-C25</f>
+        <v>5.2000000000003155E-3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>-4.3333333333333224E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>-4.610000000000003E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>-3.3600000000000296E-3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>7.6133333333332942E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Matthew Data/Data.xlsx
+++ b/Matthew Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Dropbox/Matthew/Documents/RBE 2002/RBE_2002-Team_10/Matthew Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBADE28-8B03-AB46-B539-3C9EF033A339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F771BB-2FED-7E40-922E-9CD42F059849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{33445F39-0564-DD43-A5BA-E2820B270D67}"/>
   </bookViews>

--- a/Matthew Data/Data.xlsx
+++ b/Matthew Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Dropbox/Matthew/Documents/RBE 2002/RBE_2002-Team_10/Matthew Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F771BB-2FED-7E40-922E-9CD42F059849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566A2B9-2029-7542-9191-0A6785BCB469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{33445F39-0564-DD43-A5BA-E2820B270D67}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{33445F39-0564-DD43-A5BA-E2820B270D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Ultrasonic" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Pulse Time (µm)</a:t>
+                  <a:t>Pulse Time (µs)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2513,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6286D92-3237-AA46-91E0-694698445CC9}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3073,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FA1115-8D26-4D43-97D4-9C6B9DBBD880}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
